--- a/biology/Botanique/Romulea_columnae/Romulea_columnae.xlsx
+++ b/biology/Botanique/Romulea_columnae/Romulea_columnae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La romulée à petite fleurs, Romulea columnae, est une espèce de plantes herbacées bulbeuse appartenant à la famille des Iridaceae et au genre Romulea.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Romulea bulbocodium subsp. columnae (Sebast. &amp; Mauri) Bonnier &amp; Layens, 1894
 Romulea erythropoda Jord., 1903
@@ -551,10 +565,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de février à avril[1].
-Plante assez petite. Les feuilles sont rigides et d'un vert vif, filiformes, courbées, larges de moins de 5 mm, et d'une longueur de 6 à 12 cm[1]. Périgone blanc à l'intérieur ou lavé de lilas[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de février à avril.
+Plante assez petite. Les feuilles sont rigides et d'un vert vif, filiformes, courbées, larges de moins de 5 mm, et d'une longueur de 6 à 12 cm. Périgone blanc à l'intérieur ou lavé de lilas.
 </t>
         </is>
       </c>
@@ -583,10 +599,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Romulea columnae pousse sur les sols sablonneux drainants des prairies et des falaises côtières du littoral méditerranéen et atlantique depuis le Maroc, les Canaries jusqu'en Grande-Bretagne.
-Une population de Romulea columnae auparavant non répertoriée a été découverte par l'OFB pendant l'hiver 2024 sur la commune de Villeneuve-lès-Maguelone dans l'agglomération de Montpellier [3].
+Une population de Romulea columnae auparavant non répertoriée a été découverte par l'OFB pendant l'hiver 2024 sur la commune de Villeneuve-lès-Maguelone dans l'agglomération de Montpellier .
 </t>
         </is>
       </c>
